--- a/exercices/database/db-W3Schools.xlsx
+++ b/exercices/database/db-W3Schools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\FRONTEND-2022\demoPHP-web11\exemples\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\FRONTEND-2022\demoPHP-web11\exercices\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E9CD1-4C0C-467F-ABEB-6742D913EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9FB557-3B21-4451-A0E8-D628997A7665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0DA19470-21AF-4E96-B77A-5B82FB5D4587}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{0DA19470-21AF-4E96-B77A-5B82FB5D4587}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer-Client" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Customer-Client'!$A$1:$G$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Orders-Commandes'!$A$1:$E$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Product-Produits'!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="774">
   <si>
     <t>CustomerID</t>
   </si>
@@ -1228,9 +1230,6 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>CategoryID</t>
   </si>
   <si>
@@ -1333,9 +1332,6 @@
     <t>36 boxes</t>
   </si>
   <si>
-    <t>21.35</t>
-  </si>
-  <si>
     <t>Grandma's Boysenberry Spread</t>
   </si>
   <si>
@@ -1390,27 +1386,18 @@
     <t>40 - 100 g pkgs.</t>
   </si>
   <si>
-    <t>23.25</t>
-  </si>
-  <si>
     <t>Genen Shouyu</t>
   </si>
   <si>
     <t>24 - 250 ml bottles</t>
   </si>
   <si>
-    <t>15.5</t>
-  </si>
-  <si>
     <t>Pavlova</t>
   </si>
   <si>
     <t>32 - 500 g boxes</t>
   </si>
   <si>
-    <t>17.45</t>
-  </si>
-  <si>
     <t>Alice Mutton</t>
   </si>
   <si>
@@ -1423,18 +1410,12 @@
     <t>16 kg pkg.</t>
   </si>
   <si>
-    <t>62.5</t>
-  </si>
-  <si>
     <t>Teatime Chocolate Biscuits</t>
   </si>
   <si>
     <t>10 boxes x 12 pieces</t>
   </si>
   <si>
-    <t>9.2</t>
-  </si>
-  <si>
     <t>Sir Rodney's Marmalade</t>
   </si>
   <si>
@@ -1465,9 +1446,6 @@
     <t>12 - 355 ml cans</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>NuNuCa Nuß-Nougat-Creme</t>
   </si>
   <si>
@@ -1480,54 +1458,36 @@
     <t>100 - 250 g bags</t>
   </si>
   <si>
-    <t>31.23</t>
-  </si>
-  <si>
     <t>Schoggi Schokolade</t>
   </si>
   <si>
     <t>100 - 100 g pieces</t>
   </si>
   <si>
-    <t>43.9</t>
-  </si>
-  <si>
     <t>Rössle Sauerkraut</t>
   </si>
   <si>
     <t>25 - 825 g cans</t>
   </si>
   <si>
-    <t>45.6</t>
-  </si>
-  <si>
     <t>Thüringer Rostbratwurst</t>
   </si>
   <si>
     <t>50 bags x 30 sausgs.</t>
   </si>
   <si>
-    <t>123.79</t>
-  </si>
-  <si>
     <t>Nord-Ost Matjeshering</t>
   </si>
   <si>
     <t>10 - 200 g glasses</t>
   </si>
   <si>
-    <t>25.89</t>
-  </si>
-  <si>
     <t>Gorgonzola Telino</t>
   </si>
   <si>
     <t>12 - 100 g pkgs</t>
   </si>
   <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>Mascarpone Fabioli</t>
   </si>
   <si>
@@ -1540,9 +1500,6 @@
     <t>500 g</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Sasquatch Ale</t>
   </si>
   <si>
@@ -1567,9 +1524,6 @@
     <t>12 - 75 cl bottles</t>
   </si>
   <si>
-    <t>263.5</t>
-  </si>
-  <si>
     <t>Chartreuse verte</t>
   </si>
   <si>
@@ -1582,18 +1536,12 @@
     <t>24 - 4 oz tins</t>
   </si>
   <si>
-    <t>18.4</t>
-  </si>
-  <si>
     <t>Jack's New England Clam Chowder</t>
   </si>
   <si>
     <t>12 - 12 oz cans</t>
   </si>
   <si>
-    <t>9.65</t>
-  </si>
-  <si>
     <t>Singaporean Hokkien Fried Mee</t>
   </si>
   <si>
@@ -1612,18 +1560,12 @@
     <t>20 - 2 kg bags</t>
   </si>
   <si>
-    <t>19.45</t>
-  </si>
-  <si>
     <t>Røgede sild</t>
   </si>
   <si>
     <t>1k pkg.</t>
   </si>
   <si>
-    <t>9.5</t>
-  </si>
-  <si>
     <t>Spegesild</t>
   </si>
   <si>
@@ -1642,9 +1584,6 @@
     <t>10 pkgs.</t>
   </si>
   <si>
-    <t>12.75</t>
-  </si>
-  <si>
     <t>Maxilaku</t>
   </si>
   <si>
@@ -1657,9 +1596,6 @@
     <t>12 - 100 g bars</t>
   </si>
   <si>
-    <t>16.25</t>
-  </si>
-  <si>
     <t>Manjimup Dried Apples</t>
   </si>
   <si>
@@ -1678,18 +1614,12 @@
     <t>48 pieces</t>
   </si>
   <si>
-    <t>32.8</t>
-  </si>
-  <si>
     <t>Tourtière</t>
   </si>
   <si>
     <t>16 pies</t>
   </si>
   <si>
-    <t>7.45</t>
-  </si>
-  <si>
     <t>Pâté chinois</t>
   </si>
   <si>
@@ -1705,18 +1635,12 @@
     <t>Ravioli Angelo</t>
   </si>
   <si>
-    <t>19.5</t>
-  </si>
-  <si>
     <t>Escargots de Bourgogne</t>
   </si>
   <si>
     <t>24 pieces</t>
   </si>
   <si>
-    <t>13.25</t>
-  </si>
-  <si>
     <t>Raclette Courdavault</t>
   </si>
   <si>
@@ -1735,18 +1659,12 @@
     <t>24 - 500 ml bottles</t>
   </si>
   <si>
-    <t>28.5</t>
-  </si>
-  <si>
     <t>Tarte au sucre</t>
   </si>
   <si>
     <t>48 pies</t>
   </si>
   <si>
-    <t>49.3</t>
-  </si>
-  <si>
     <t>Vegie-spread</t>
   </si>
   <si>
@@ -1759,18 +1677,12 @@
     <t>20 bags x 4 pieces</t>
   </si>
   <si>
-    <t>33.25</t>
-  </si>
-  <si>
     <t>Louisiana Fiery Hot Pepper Sauce</t>
   </si>
   <si>
     <t>32 - 8 oz bottles</t>
   </si>
   <si>
-    <t>21.05</t>
-  </si>
-  <si>
     <t>Louisiana Hot Spiced Okra</t>
   </si>
   <si>
@@ -1801,15 +1713,9 @@
     <t>Fløtemysost</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>Mozzarella di Giovanni</t>
   </si>
   <si>
-    <t>34.8</t>
-  </si>
-  <si>
     <t>Röd Kaviar</t>
   </si>
   <si>
@@ -1823,9 +1729,6 @@
   </si>
   <si>
     <t>24 - 0.5 l bottles</t>
-  </si>
-  <si>
-    <t>7.75</t>
   </si>
   <si>
     <t>Lakkalikööri</t>
@@ -2471,7 +2374,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2491,6 +2397,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2658,10 +2571,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -2739,8 +2653,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3053,17 +2984,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3067F6-82CD-4580-AD20-E4FB6148E255}">
-  <dimension ref="A1:G109"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
@@ -3093,7 +3025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3116,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="31.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3139,7 +3071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3162,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3185,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3208,7 +3140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3231,7 +3163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3254,7 +3186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3277,7 +3209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3300,7 +3232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3323,7 +3255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3346,7 +3278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3369,7 +3301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3392,7 +3324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3415,7 +3347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3438,7 +3370,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -3461,7 +3393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3484,7 +3416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -3507,7 +3439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3530,7 +3462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3553,7 +3485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3576,7 +3508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3599,7 +3531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3622,7 +3554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3645,7 +3577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3668,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3691,7 +3623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3714,7 +3646,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3737,7 +3669,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3760,7 +3692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -3783,7 +3715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3806,7 +3738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -3829,7 +3761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3875,7 +3807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="31.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3898,7 +3830,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -3921,7 +3853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3942,7 +3874,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -3965,7 +3897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3988,7 +3920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -4011,7 +3943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -4034,7 +3966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -4057,7 +3989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -4080,7 +4012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -4103,7 +4035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -4126,7 +4058,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="31.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -4149,7 +4081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4172,7 +4104,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -4195,7 +4127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4218,7 +4150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -4241,7 +4173,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -4264,7 +4196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -4287,7 +4219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -4310,7 +4242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -4333,7 +4265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -4356,7 +4288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -4379,7 +4311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4402,7 +4334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -4425,7 +4357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4448,7 +4380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -4471,7 +4403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4494,7 +4426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -4517,7 +4449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4540,7 +4472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -4563,7 +4495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4586,7 +4518,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -4609,7 +4541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4632,7 +4564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -4655,7 +4587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -4678,7 +4610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -4701,7 +4633,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -4724,7 +4656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -4747,7 +4679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -4770,7 +4702,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -4793,7 +4725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -4816,7 +4748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -4839,7 +4771,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -4862,7 +4794,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -4885,7 +4817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -4908,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -4931,7 +4863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -4954,7 +4886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -4977,7 +4909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -5000,7 +4932,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -5023,7 +4955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -5046,7 +4978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -5069,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -5092,7 +5024,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -5115,7 +5047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -5138,7 +5070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -5161,7 +5093,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -5184,13 +5116,14 @@
         <v>393</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>394</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G92" xr:uid="{2A3067F6-82CD-4580-AD20-E4FB6148E255}"/>
+  <autoFilter ref="A1:G92" xr:uid="{2A3067F6-82CD-4580-AD20-E4FB6148E255}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hanari Carnes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5200,26 +5133,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF5685-7241-4E51-9CA5-B99E33F4146E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>396</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5227,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5238,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5249,10 +5182,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5260,10 +5193,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5271,10 +5204,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5282,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5293,10 +5226,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5304,10 +5237,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5317,10 +5250,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE28FC30-EDAC-47EE-AE8D-BFE8C0EEE2CA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5330,675 +5264,675 @@
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="5">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F2" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F3" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="E5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="E6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F7" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" s="5">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F8" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F5" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="E9" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F9" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F7" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F9" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="12">
-        <v>97</v>
+        <v>467</v>
+      </c>
+      <c r="F10" s="28">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="C11" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" s="4">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F11" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F12" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F13" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F14" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="E15" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="F15" s="28">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
+    </row>
+    <row r="16" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>451</v>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F16" s="29">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="5">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>454</v>
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="28">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="5">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="D22" s="5">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F22" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>49</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="4">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F25" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="4">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F28" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="4">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="F18" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B30" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
         <v>7</v>
       </c>
-      <c r="D19" s="5">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E30" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F30" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C23" s="5">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F23" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F24" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C25" s="5">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C26" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C27" s="5">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C28" s="4">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C29" s="5">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C30" s="4">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="C31" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D31" s="5">
         <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+        <v>437</v>
+      </c>
+      <c r="F31" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C32" s="4">
+    </row>
+    <row r="32" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="5">
         <v>14</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F32" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C33" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F33" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+      <c r="F33" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="C34" s="4">
         <v>15</v>
@@ -6007,558 +5941,558 @@
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+      <c r="F34" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="C35" s="5">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="5">
+        <v>26</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F36" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>17</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="4">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F37" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F38" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C39" s="4">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F39" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>51</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="4">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="4">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F41" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>20</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="5">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F42" s="29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F43" s="28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" s="4">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" s="28">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>68</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F45" s="29">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C46" s="5">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F46" s="29">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>29</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="4">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F47" s="28">
+        <v>123.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>58</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C48" s="5">
+        <v>27</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F48" s="29">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>15</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C49" s="4">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F49" s="28">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="5">
+        <v>23</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F50" s="29">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
         <v>16</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F35" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C36" s="4">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F36" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C37" s="5">
-        <v>17</v>
-      </c>
-      <c r="D37" s="5">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F37" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C38" s="4">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4">
-        <v>8</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F38" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" s="5">
-        <v>18</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="C40" s="4">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="F40" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C41" s="5">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C42" s="4">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4">
-        <v>8</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C43" s="5">
-        <v>20</v>
-      </c>
-      <c r="D43" s="5">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F43" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C44" s="4">
-        <v>20</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F44" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C45" s="5">
-        <v>20</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C46" s="4">
-        <v>21</v>
-      </c>
-      <c r="D46" s="4">
-        <v>8</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C47" s="5">
-        <v>21</v>
-      </c>
-      <c r="D47" s="5">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="F47" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="C48" s="4">
-        <v>22</v>
-      </c>
-      <c r="D48" s="4">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C49" s="5">
-        <v>22</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C50" s="4">
-        <v>23</v>
-      </c>
-      <c r="D50" s="4">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="F50" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
       <c r="B51" s="5" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="C51" s="5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5">
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C52" s="4">
-        <v>24</v>
-      </c>
-      <c r="D52" s="4">
+        <v>449</v>
+      </c>
+      <c r="F51" s="29">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>40</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C52" s="5">
+        <v>19</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F52" s="29">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>44</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C53" s="5">
+        <v>20</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F53" s="29">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C54" s="4">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F54" s="28">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="4">
+        <v>15</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" s="28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>65</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F56" s="28">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="11">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F57" s="28">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
+        <v>71</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C58" s="4">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F58" s="28">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>14</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="5">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5">
         <v>7</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F52" s="12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C53" s="5">
-        <v>24</v>
-      </c>
-      <c r="D53" s="5">
-        <v>5</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="F53" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C54" s="4">
-        <v>24</v>
-      </c>
-      <c r="D54" s="4">
-        <v>6</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" s="5">
-        <v>25</v>
-      </c>
-      <c r="D55" s="5">
-        <v>6</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C56" s="4">
-        <v>25</v>
-      </c>
-      <c r="D56" s="4">
-        <v>6</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="F56" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C57" s="5">
-        <v>26</v>
-      </c>
-      <c r="D57" s="5">
-        <v>5</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="F57" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C58" s="4">
-        <v>26</v>
-      </c>
-      <c r="D58" s="4">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C59" s="5">
-        <v>27</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F59" s="29">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>30</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="5">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5">
         <v>8</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C60" s="4">
-        <v>28</v>
-      </c>
-      <c r="D60" s="4">
-        <v>4</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="F60" s="12">
-        <v>55</v>
+      <c r="E60" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F60" s="29">
+        <v>25.89</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="C61" s="5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D61" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F61" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="F61" s="29">
+        <v>263.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="C62" s="4">
         <v>29</v>
@@ -6567,58 +6501,58 @@
         <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+      <c r="F62" s="28">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>564</v>
+        <v>468</v>
       </c>
       <c r="C63" s="5">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D63" s="5">
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="F63" s="29">
+        <v>31.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="C64" s="4">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+      <c r="F64" s="28">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="C65" s="5">
         <v>12</v>
@@ -6627,273 +6561,283 @@
         <v>5</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C66" s="4">
+        <v>542</v>
+      </c>
+      <c r="F65" s="29">
+        <v>33.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>72</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C66" s="5">
+        <v>14</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F66" s="29">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>24</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C67" s="5">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F67" s="29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
+        <v>27</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" s="4">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F68" s="28">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
+        <v>63</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C69" s="4">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4">
         <v>2</v>
       </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F67" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="11">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C68" s="4">
-        <v>16</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F68" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C69" s="5">
+      <c r="E69" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F69" s="28">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>28</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C70" s="5">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F70" s="29">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>62</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71" s="5">
+        <v>29</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F71" s="29">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>18</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C72" s="5">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
         <v>8</v>
       </c>
-      <c r="D69" s="5">
-        <v>3</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C70" s="4">
-        <v>15</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F70" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C71" s="5">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F71" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="11">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C72" s="4">
-        <v>15</v>
-      </c>
-      <c r="D72" s="4">
-        <v>4</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F72" s="29">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="C73" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D73" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>587</v>
+        <v>523</v>
+      </c>
+      <c r="F73" s="29">
+        <v>7.45</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="C74" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F74" s="32">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11">
+        <v>19</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C75" s="4">
         <v>8</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="F74" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="C75" s="5">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5">
-        <v>7</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="F75" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F75" s="28">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="C76" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="C77" s="5">
-        <v>23</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="F77" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+      <c r="F76" s="28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
+        <v>47</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77" s="4">
+        <v>22</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F77" s="28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>596</v>
+        <v>496</v>
       </c>
       <c r="C78" s="14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D78" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="F78" s="15">
-        <v>13</v>
+        <v>497</v>
+      </c>
+      <c r="F78" s="30">
+        <v>9.65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F78" xr:uid="{EE28FC30-EDAC-47EE-AE8D-BFE8C0EEE2CA}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:F78">
+      <sortCondition ref="F1:F78"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6917,22 +6861,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6940,19 +6884,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="D2" s="22">
         <v>25180</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6960,19 +6904,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="D3" s="23">
         <v>19043</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6980,19 +6924,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="D4" s="22">
         <v>23253</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7000,19 +6944,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="D5" s="23">
         <v>21447</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.35">
@@ -7020,19 +6964,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="D6" s="22">
         <v>20152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -7040,19 +6984,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="D7" s="23">
         <v>23194</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7060,19 +7004,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="D8" s="22">
         <v>22065</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7080,19 +7024,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="D9" s="23">
         <v>21194</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -7100,19 +7044,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="D10" s="22">
         <v>25386</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7120,19 +7064,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="D11" s="24">
         <v>10490</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -7142,38 +7086,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB01812-7224-41D7-A9C6-DDA31E0B5622}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>10248</v>
       </c>
@@ -7190,7 +7135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>10249</v>
       </c>
@@ -7224,7 +7169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>10251</v>
       </c>
@@ -7241,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>10252</v>
       </c>
@@ -7275,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>10254</v>
       </c>
@@ -7292,7 +7237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>10255</v>
       </c>
@@ -7309,7 +7254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>10256</v>
       </c>
@@ -7326,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10257</v>
       </c>
@@ -7343,7 +7288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10258</v>
       </c>
@@ -7360,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10259</v>
       </c>
@@ -7377,7 +7322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>10260</v>
       </c>
@@ -7394,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>10261</v>
       </c>
@@ -7411,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>10262</v>
       </c>
@@ -7428,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>10263</v>
       </c>
@@ -7445,7 +7390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>10264</v>
       </c>
@@ -7462,7 +7407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>10265</v>
       </c>
@@ -7479,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>10266</v>
       </c>
@@ -7496,7 +7441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>10267</v>
       </c>
@@ -7513,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>10268</v>
       </c>
@@ -7530,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>10269</v>
       </c>
@@ -7547,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>10270</v>
       </c>
@@ -7564,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>10271</v>
       </c>
@@ -7581,7 +7526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>10272</v>
       </c>
@@ -7598,7 +7543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>10273</v>
       </c>
@@ -7615,7 +7560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>10274</v>
       </c>
@@ -7632,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10275</v>
       </c>
@@ -7649,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>10276</v>
       </c>
@@ -7666,7 +7611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>10277</v>
       </c>
@@ -7683,7 +7628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>10278</v>
       </c>
@@ -7700,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>10279</v>
       </c>
@@ -7717,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>10280</v>
       </c>
@@ -7734,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>10281</v>
       </c>
@@ -7751,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>10282</v>
       </c>
@@ -7768,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>10283</v>
       </c>
@@ -7785,7 +7730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>10284</v>
       </c>
@@ -7802,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>10285</v>
       </c>
@@ -7819,7 +7764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>10286</v>
       </c>
@@ -7836,7 +7781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>10287</v>
       </c>
@@ -7853,7 +7798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>10288</v>
       </c>
@@ -7870,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>10289</v>
       </c>
@@ -7887,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>10290</v>
       </c>
@@ -7904,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>10291</v>
       </c>
@@ -7921,7 +7866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>10292</v>
       </c>
@@ -7938,7 +7883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>10293</v>
       </c>
@@ -7955,7 +7900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>10294</v>
       </c>
@@ -7972,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>10295</v>
       </c>
@@ -7989,7 +7934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>10296</v>
       </c>
@@ -8006,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>10297</v>
       </c>
@@ -8023,7 +7968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>10298</v>
       </c>
@@ -8040,7 +7985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>10299</v>
       </c>
@@ -8057,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>10300</v>
       </c>
@@ -8074,7 +8019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10301</v>
       </c>
@@ -8091,7 +8036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>10302</v>
       </c>
@@ -8108,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>10303</v>
       </c>
@@ -8125,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>10304</v>
       </c>
@@ -8142,7 +8087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>10305</v>
       </c>
@@ -8159,7 +8104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>10306</v>
       </c>
@@ -8176,7 +8121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>10307</v>
       </c>
@@ -8193,7 +8138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>10308</v>
       </c>
@@ -8210,7 +8155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>10309</v>
       </c>
@@ -8227,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>10310</v>
       </c>
@@ -8244,7 +8189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>10311</v>
       </c>
@@ -8261,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>10312</v>
       </c>
@@ -8278,7 +8223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>10313</v>
       </c>
@@ -8295,7 +8240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>10314</v>
       </c>
@@ -8312,7 +8257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>10315</v>
       </c>
@@ -8329,7 +8274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>10316</v>
       </c>
@@ -8346,7 +8291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>10317</v>
       </c>
@@ -8363,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>10318</v>
       </c>
@@ -8380,7 +8325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>10319</v>
       </c>
@@ -8397,7 +8342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>10320</v>
       </c>
@@ -8414,7 +8359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>10321</v>
       </c>
@@ -8431,7 +8376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>10322</v>
       </c>
@@ -8448,7 +8393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>10323</v>
       </c>
@@ -8465,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>10324</v>
       </c>
@@ -8482,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>10325</v>
       </c>
@@ -8499,7 +8444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>10326</v>
       </c>
@@ -8516,7 +8461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>10327</v>
       </c>
@@ -8533,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>10328</v>
       </c>
@@ -8550,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>10329</v>
       </c>
@@ -8567,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>10330</v>
       </c>
@@ -8584,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>10331</v>
       </c>
@@ -8601,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>10332</v>
       </c>
@@ -8618,7 +8563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>10333</v>
       </c>
@@ -8635,7 +8580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>10334</v>
       </c>
@@ -8652,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>10335</v>
       </c>
@@ -8669,7 +8614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>10336</v>
       </c>
@@ -8686,7 +8631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>10337</v>
       </c>
@@ -8703,7 +8648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>10338</v>
       </c>
@@ -8720,7 +8665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>10339</v>
       </c>
@@ -8737,7 +8682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>10340</v>
       </c>
@@ -8754,7 +8699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>10341</v>
       </c>
@@ -8771,7 +8716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>10342</v>
       </c>
@@ -8788,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>10343</v>
       </c>
@@ -8805,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>10344</v>
       </c>
@@ -8822,7 +8767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>10345</v>
       </c>
@@ -8839,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>10346</v>
       </c>
@@ -8856,7 +8801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>10347</v>
       </c>
@@ -8873,7 +8818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>10348</v>
       </c>
@@ -8890,7 +8835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>10349</v>
       </c>
@@ -8907,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>10350</v>
       </c>
@@ -8924,7 +8869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>10351</v>
       </c>
@@ -8941,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>10352</v>
       </c>
@@ -8958,7 +8903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>10353</v>
       </c>
@@ -8975,7 +8920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>10354</v>
       </c>
@@ -8992,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>10355</v>
       </c>
@@ -9009,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>10356</v>
       </c>
@@ -9026,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>10357</v>
       </c>
@@ -9043,7 +8988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>10358</v>
       </c>
@@ -9060,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>10359</v>
       </c>
@@ -9077,7 +9022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>10360</v>
       </c>
@@ -9094,7 +9039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>10361</v>
       </c>
@@ -9111,7 +9056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>10362</v>
       </c>
@@ -9128,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>10363</v>
       </c>
@@ -9145,7 +9090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>10364</v>
       </c>
@@ -9162,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>10365</v>
       </c>
@@ -9179,7 +9124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>10366</v>
       </c>
@@ -9196,7 +9141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>10367</v>
       </c>
@@ -9213,7 +9158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>10368</v>
       </c>
@@ -9230,7 +9175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>10369</v>
       </c>
@@ -9247,7 +9192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>10370</v>
       </c>
@@ -9264,7 +9209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>10371</v>
       </c>
@@ -9281,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>10372</v>
       </c>
@@ -9298,7 +9243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>10373</v>
       </c>
@@ -9315,7 +9260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>10374</v>
       </c>
@@ -9332,7 +9277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>10375</v>
       </c>
@@ -9349,7 +9294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>10376</v>
       </c>
@@ -9366,7 +9311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>10377</v>
       </c>
@@ -9383,7 +9328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>10378</v>
       </c>
@@ -9400,7 +9345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>10379</v>
       </c>
@@ -9417,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>10380</v>
       </c>
@@ -9434,7 +9379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>10381</v>
       </c>
@@ -9451,7 +9396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>10382</v>
       </c>
@@ -9468,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>10383</v>
       </c>
@@ -9485,7 +9430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>10384</v>
       </c>
@@ -9502,7 +9447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>10385</v>
       </c>
@@ -9519,7 +9464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>10386</v>
       </c>
@@ -9536,7 +9481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>10387</v>
       </c>
@@ -9553,7 +9498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>10388</v>
       </c>
@@ -9570,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>10389</v>
       </c>
@@ -9587,7 +9532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>10390</v>
       </c>
@@ -9604,7 +9549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>10391</v>
       </c>
@@ -9621,7 +9566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>10392</v>
       </c>
@@ -9638,7 +9583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>10393</v>
       </c>
@@ -9655,7 +9600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>10394</v>
       </c>
@@ -9672,7 +9617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>10395</v>
       </c>
@@ -9689,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>10396</v>
       </c>
@@ -9706,7 +9651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>10397</v>
       </c>
@@ -9723,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>10398</v>
       </c>
@@ -9740,7 +9685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>10399</v>
       </c>
@@ -9757,7 +9702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>10400</v>
       </c>
@@ -9774,7 +9719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>10401</v>
       </c>
@@ -9791,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>10402</v>
       </c>
@@ -9808,7 +9753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>10403</v>
       </c>
@@ -9825,7 +9770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>10404</v>
       </c>
@@ -9842,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>10405</v>
       </c>
@@ -9859,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>10406</v>
       </c>
@@ -9876,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>10407</v>
       </c>
@@ -9893,7 +9838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>10408</v>
       </c>
@@ -9910,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>10409</v>
       </c>
@@ -9927,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>10410</v>
       </c>
@@ -9944,7 +9889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>10411</v>
       </c>
@@ -9961,7 +9906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>10412</v>
       </c>
@@ -9978,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>10413</v>
       </c>
@@ -9995,7 +9940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>10414</v>
       </c>
@@ -10012,7 +9957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>10415</v>
       </c>
@@ -10029,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>10416</v>
       </c>
@@ -10046,7 +9991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>10417</v>
       </c>
@@ -10063,7 +10008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>10418</v>
       </c>
@@ -10080,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>10419</v>
       </c>
@@ -10097,7 +10042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>10420</v>
       </c>
@@ -10114,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>10421</v>
       </c>
@@ -10131,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>10422</v>
       </c>
@@ -10148,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>10423</v>
       </c>
@@ -10165,7 +10110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>10424</v>
       </c>
@@ -10182,7 +10127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>10425</v>
       </c>
@@ -10199,7 +10144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>10426</v>
       </c>
@@ -10216,7 +10161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>10427</v>
       </c>
@@ -10233,7 +10178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>10428</v>
       </c>
@@ -10250,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>10429</v>
       </c>
@@ -10267,7 +10212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>10430</v>
       </c>
@@ -10284,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>10431</v>
       </c>
@@ -10301,7 +10246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>10432</v>
       </c>
@@ -10318,7 +10263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>10433</v>
       </c>
@@ -10335,7 +10280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>10434</v>
       </c>
@@ -10352,7 +10297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>10435</v>
       </c>
@@ -10369,7 +10314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>10436</v>
       </c>
@@ -10386,7 +10331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>10437</v>
       </c>
@@ -10403,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>10438</v>
       </c>
@@ -10420,7 +10365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>10439</v>
       </c>
@@ -10437,7 +10382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>10440</v>
       </c>
@@ -10454,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>10441</v>
       </c>
@@ -10471,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>10442</v>
       </c>
@@ -10488,7 +10433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19">
         <v>10443</v>
       </c>
@@ -10506,6 +10451,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E197" xr:uid="{6BB01812-7224-41D7-A9C6-DDA31E0B5622}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="34"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="1996" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10514,8 +10471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96793A82-88F1-4012-88E0-A701D2312143}">
   <dimension ref="A1:E519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10526,16 +10483,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E1" s="18"/>
     </row>
@@ -18009,13 +17966,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18023,10 +17980,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18034,10 +17991,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18045,10 +18002,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -18071,10 +18028,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>2</v>
@@ -18092,7 +18049,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18100,25 +18057,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -18126,16 +18083,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="F3" s="5">
         <v>70117</v>
@@ -18144,7 +18101,7 @@
         <v>150</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18152,16 +18109,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="F4" s="4">
         <v>48104</v>
@@ -18170,7 +18127,7 @@
         <v>150</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -18178,25 +18135,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="F5" s="5">
         <v>100</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -18204,16 +18161,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="F6" s="4">
         <v>33007</v>
@@ -18222,7 +18179,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18230,25 +18187,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="F7" s="5">
         <v>545</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18256,25 +18213,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="F8" s="4">
         <v>3058</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18282,25 +18239,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18308,25 +18265,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18334,13 +18291,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>76</v>
@@ -18352,7 +18309,7 @@
         <v>78</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -18360,13 +18317,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>10</v>
@@ -18378,7 +18335,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -18386,16 +18343,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="F13" s="5">
         <v>60439</v>
@@ -18404,7 +18361,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -18412,16 +18369,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="F14" s="4">
         <v>27478</v>
@@ -18430,7 +18387,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18438,16 +18395,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="F15" s="5">
         <v>48100</v>
@@ -18456,7 +18413,7 @@
         <v>127</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18464,16 +18421,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="F16" s="4">
         <v>1320</v>
@@ -18482,7 +18439,7 @@
         <v>306</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18490,16 +18447,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="F17" s="5">
         <v>97101</v>
@@ -18508,7 +18465,7 @@
         <v>150</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18516,25 +18473,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18542,13 +18499,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>257</v>
@@ -18560,7 +18517,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -18568,16 +18525,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="F20" s="4">
         <v>2134</v>
@@ -18586,7 +18543,7 @@
         <v>150</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -18594,25 +18551,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="F21" s="5">
         <v>512</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18620,16 +18577,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="F22" s="4">
         <v>2800</v>
@@ -18646,25 +18603,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18672,16 +18629,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>775</v>
+        <v>742</v>
       </c>
       <c r="F24" s="4">
         <v>53120</v>
@@ -18690,7 +18647,7 @@
         <v>374</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>776</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -18698,25 +18655,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>777</v>
+        <v>744</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="F25" s="5">
         <v>2042</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18724,13 +18681,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>233</v>
@@ -18742,7 +18699,7 @@
         <v>55</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>785</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18750,16 +18707,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="F27" s="5">
         <v>84100</v>
@@ -18768,7 +18725,7 @@
         <v>127</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18776,16 +18733,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>791</v>
+        <v>758</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="F28" s="4">
         <v>71300</v>
@@ -18794,7 +18751,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>795</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18802,16 +18759,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>798</v>
+        <v>765</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="F29" s="5">
         <v>74000</v>
@@ -18820,7 +18777,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -18828,25 +18785,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
